--- a/charles-university/data-structures-1/splay-tree/docs/results.xlsx
+++ b/charles-university/data-structures-1/splay-tree/docs/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyper\Documents\repos\lct-master\charles-university\data-structures-1\splay-tree\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyper\Documents\GitHub\lct-master\charles-university\data-structures-1\splay-tree\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1456,7 +1456,7 @@
                   <c:v>5.0557999999999996</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0557999999999996</c:v>
+                  <c:v>15.379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2707,7 @@
                   <c:v>9.3254699999999993</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>9.3254699999999993</c:v>
+                  <c:v>9.2333999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,7 +3958,7 @@
                   <c:v>18.20065</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>18.20065</c:v>
+                  <c:v>16.80696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5209,7 +5209,7 @@
                   <c:v>16.65128</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>16.65128</c:v>
+                  <c:v>16.598952000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6460,7 +6460,7 @@
                   <c:v>21.780487999999998</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>21.780487999999998</c:v>
+                  <c:v>21.948262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7711,7 +7711,7 @@
                   <c:v>26.271526000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>26.271526000000001</c:v>
+                  <c:v>26.117725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9361,7 +9361,7 @@
                   <c:v>2.5102000000000002</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.5102000000000002</c:v>
+                  <c:v>2.6162000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10612,7 +10612,7 @@
                   <c:v>6.7168299999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>6.7168299999999999</c:v>
+                  <c:v>6.7226100000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11863,7 +11863,7 @@
                   <c:v>11.53877</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>11.53877</c:v>
+                  <c:v>11.551600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13114,7 +13114,7 @@
                   <c:v>16.311105000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>16.311105000000001</c:v>
+                  <c:v>16.308959000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14365,7 +14365,7 @@
                   <c:v>21.425906000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>21.425906000000001</c:v>
+                  <c:v>21.423683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15616,7 +15616,7 @@
                   <c:v>25.852371999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>25.852371999999999</c:v>
+                  <c:v>25.852865999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17264,7 +17264,7 @@
                   <c:v>6.7168299999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>6.7168299999999999</c:v>
+                  <c:v>6.7226100000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18515,7 +18515,7 @@
                   <c:v>16.311105000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>16.311105000000001</c:v>
+                  <c:v>16.308959000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19766,7 +19766,7 @@
                   <c:v>25.852371999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>25.852371999999999</c:v>
+                  <c:v>25.852865999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21017,7 +21017,7 @@
                   <c:v>9.3254699999999993</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>9.3254699999999993</c:v>
+                  <c:v>9.2333999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22268,7 +22268,7 @@
                   <c:v>16.65128</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>16.65128</c:v>
+                  <c:v>16.598952000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23519,7 +23519,7 @@
                   <c:v>26.271526000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>26.271526000000001</c:v>
+                  <c:v>26.117725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24089,7 +24089,7 @@
                   <c:v>5.3884210000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3884210000000001</c:v>
+                  <c:v>5.3940000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24260,7 +24260,7 @@
                   <c:v>950.49894700000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>950.49894700000004</c:v>
+                  <c:v>1000.499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26849,16 +26849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>739775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112713</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26926,15 +26926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112713</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26965,44 +26965,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:G202" totalsRowShown="0">
-  <autoFilter ref="A2:G202" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G202" totalsRowShown="0">
+  <autoFilter ref="A2:G202"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tree Size"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="T = 10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="T = 100"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="T = 1000"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="T = 10000"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="T = 100000"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="T = 1000000"/>
+    <tableColumn id="2" name="Tree Size"/>
+    <tableColumn id="3" name="T = 10"/>
+    <tableColumn id="5" name="T = 100"/>
+    <tableColumn id="7" name="T = 1000"/>
+    <tableColumn id="4" name="T = 10000"/>
+    <tableColumn id="6" name="T = 100000"/>
+    <tableColumn id="8" name="T = 1000000"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A456B41-D16B-4D0A-9BBD-024098A138E9}" name="Table4" displayName="Table4" ref="I2:O202" totalsRowShown="0">
-  <autoFilter ref="I2:O202" xr:uid="{1E60F6D4-56BC-4D81-B0DE-E4CF9F6B8C3E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I2:O202" totalsRowShown="0">
+  <autoFilter ref="I2:O202"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C3562A33-DD6B-4186-93C2-8FF378B4FFFC}" name="Tree Size"/>
-    <tableColumn id="2" xr3:uid="{B46A3BE9-542F-493B-AFB4-87C098733A0A}" name="T = 10"/>
-    <tableColumn id="3" xr3:uid="{140B8686-F190-4353-B253-B98359A5E789}" name="T = 100"/>
-    <tableColumn id="4" xr3:uid="{D439FDA2-9C52-49D3-B9BD-5B618FF97797}" name="T = 1000"/>
-    <tableColumn id="5" xr3:uid="{186CAB13-FA62-4EF9-9234-402321033FCB}" name="T = 10000"/>
-    <tableColumn id="6" xr3:uid="{9F363877-3F0E-415A-B246-809CB6543922}" name="T = 100000"/>
-    <tableColumn id="7" xr3:uid="{3E568628-D95A-4DF0-8D12-345641DD9DF2}" name="T = 1000000"/>
+    <tableColumn id="1" name="Tree Size"/>
+    <tableColumn id="2" name="T = 10"/>
+    <tableColumn id="3" name="T = 100"/>
+    <tableColumn id="4" name="T = 1000"/>
+    <tableColumn id="5" name="T = 10000"/>
+    <tableColumn id="6" name="T = 100000"/>
+    <tableColumn id="7" name="T = 1000000"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3D67163B-7A37-4A72-9920-8128D9C89C0B}" name="Table6" displayName="Table6" ref="Q2:S22" totalsRowShown="0">
-  <autoFilter ref="Q2:S22" xr:uid="{522A0785-51F8-4B57-BE84-FFBAAB818ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="Q2:S22" totalsRowShown="0">
+  <autoFilter ref="Q2:S22"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA09E916-706B-45E3-8221-9838FC2E0C5E}" name="Tree Size"/>
-    <tableColumn id="2" xr3:uid="{FEE9F5E2-8CE6-466B-9C6D-58DE69103ACD}" name="Standard"/>
-    <tableColumn id="3" xr3:uid="{E0C3B207-7FDB-4B20-8B68-2B7EFB69A35D}" name="Naïve"/>
+    <tableColumn id="1" name="Tree Size"/>
+    <tableColumn id="2" name="Standard"/>
+    <tableColumn id="3" name="Naïve"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -27304,31 +27304,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="9" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="17" max="18" width="11" customWidth="1"/>
     <col min="20" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -27357,7 +27357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -27463,7 +27463,7 @@
         <v>50.48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6000</v>
       </c>
@@ -27516,7 +27516,7 @@
         <v>100.49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11000</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>150.49333300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>200.495</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>21000</v>
       </c>
@@ -27675,7 +27675,7 @@
         <v>250.49600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>26000</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>300.496667</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>31000</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>350.49714299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>36000</v>
       </c>
@@ -27834,7 +27834,7 @@
         <v>400.4975</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>41000</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>450.49777799999998</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>46000</v>
       </c>
@@ -27940,7 +27940,7 @@
         <v>500.49799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>51000</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>550.49818200000004</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>56000</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>600.498333</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>61000</v>
       </c>
@@ -28099,7 +28099,7 @@
         <v>650.49846200000002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>66000</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>700.49857099999997</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>71000</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>750.49866699999995</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>76000</v>
       </c>
@@ -28258,7 +28258,7 @@
         <v>800.49874999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>81000</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>850.49882400000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>86000</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>900.49888899999996</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>91000</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>950.49894700000004</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>96000</v>
       </c>
@@ -28464,13 +28464,13 @@
         <v>2000</v>
       </c>
       <c r="R22">
-        <v>5.3884210000000001</v>
+        <v>5.3940000000000001</v>
       </c>
       <c r="S22">
-        <v>950.49894700000004</v>
+        <v>1000.499</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>101000</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>20.305928000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>106000</v>
       </c>
@@ -28558,7 +28558,7 @@
         <v>20.388376000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>111000</v>
       </c>
@@ -28602,7 +28602,7 @@
         <v>20.500406999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>116000</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>20.580815999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>121000</v>
       </c>
@@ -28690,7 +28690,7 @@
         <v>20.664507</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>126000</v>
       </c>
@@ -28734,7 +28734,7 @@
         <v>20.763003000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>131000</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>20.821840000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>136000</v>
       </c>
@@ -28822,7 +28822,7 @@
         <v>20.907771</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>141000</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>20.967072000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>146000</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>21.036294999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>151000</v>
       </c>
@@ -28954,7 +28954,7 @@
         <v>21.111737000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>156000</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>21.178090000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>161000</v>
       </c>
@@ -29042,7 +29042,7 @@
         <v>21.242014000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>166000</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>21.303547999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>171000</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>21.367557999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>176000</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>21.420950000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>181000</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>21.471523999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>186000</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>21.528389000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>191000</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>21.589663999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>196000</v>
       </c>
@@ -29350,7 +29350,7 @@
         <v>21.645212000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201000</v>
       </c>
@@ -29394,7 +29394,7 @@
         <v>21.977678000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>206000</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>21.994683999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>211000</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>22.074864000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>216000</v>
       </c>
@@ -29526,7 +29526,7 @@
         <v>22.079799000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>221000</v>
       </c>
@@ -29570,7 +29570,7 @@
         <v>22.169101000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>226000</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>22.222708999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>231000</v>
       </c>
@@ -29658,7 +29658,7 @@
         <v>22.288273</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>236000</v>
       </c>
@@ -29702,7 +29702,7 @@
         <v>22.294741999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>241000</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>22.299970999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>246000</v>
       </c>
@@ -29790,7 +29790,7 @@
         <v>22.337738000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>251000</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>22.403542000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>256000</v>
       </c>
@@ -29878,7 +29878,7 @@
         <v>22.439858000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>261000</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>22.482153</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>266000</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>22.529216999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>271000</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>22.587157000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>276000</v>
       </c>
@@ -30054,7 +30054,7 @@
         <v>22.609207999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>281000</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>22.630738999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>286000</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>22.689643</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>291000</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>22.703911000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>296000</v>
       </c>
@@ -30230,7 +30230,7 @@
         <v>22.755811000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>301000</v>
       </c>
@@ -30274,7 +30274,7 @@
         <v>22.819700000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>306000</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>22.834644999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>311000</v>
       </c>
@@ -30362,7 +30362,7 @@
         <v>22.852730999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>316000</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>22.892590999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>321000</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>22.943028000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>326000</v>
       </c>
@@ -30494,7 +30494,7 @@
         <v>22.939236000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>331000</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>22.988980000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>336000</v>
       </c>
@@ -30582,7 +30582,7 @@
         <v>23.032302000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>341000</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>23.056073000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>346000</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>23.058084000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>351000</v>
       </c>
@@ -30714,7 +30714,7 @@
         <v>23.093879000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>356000</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>23.115283000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>361000</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>23.150138999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>366000</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>23.187301999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>371000</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>23.243644</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>376000</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>23.238847</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>381000</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>23.267710999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>386000</v>
       </c>
@@ -31022,7 +31022,7 @@
         <v>23.308744999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>391000</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>23.326021999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>396000</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>23.346803000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>401000</v>
       </c>
@@ -31154,7 +31154,7 @@
         <v>23.356389</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>406000</v>
       </c>
@@ -31198,7 +31198,7 @@
         <v>23.449596</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>411000</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>23.396571000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>416000</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>23.449166999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>421000</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>23.478078</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>426000</v>
       </c>
@@ -31374,7 +31374,7 @@
         <v>23.504353999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>431000</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>23.540555000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>436000</v>
       </c>
@@ -31462,7 +31462,7 @@
         <v>23.550560000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>441000</v>
       </c>
@@ -31506,7 +31506,7 @@
         <v>23.570533000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>446000</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>23.572659000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>451000</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>23.637098000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>456000</v>
       </c>
@@ -31638,7 +31638,7 @@
         <v>23.623822000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>461000</v>
       </c>
@@ -31682,7 +31682,7 @@
         <v>23.660924000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>466000</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>23.664541</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>471000</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>23.68805</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>476000</v>
       </c>
@@ -31814,7 +31814,7 @@
         <v>23.713024000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>481000</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>23.753900999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>486000</v>
       </c>
@@ -31902,7 +31902,7 @@
         <v>23.780396</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>491000</v>
       </c>
@@ -31946,7 +31946,7 @@
         <v>23.779398</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>496000</v>
       </c>
@@ -31990,7 +31990,7 @@
         <v>23.791437999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>501000</v>
       </c>
@@ -32034,7 +32034,7 @@
         <v>24.729361000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>506000</v>
       </c>
@@ -32078,7 +32078,7 @@
         <v>24.64752</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>511000</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>24.740549999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>516000</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>24.669457000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>521000</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>24.723029</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>526000</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>24.792268</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>531000</v>
       </c>
@@ -32298,7 +32298,7 @@
         <v>24.903314999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>536000</v>
       </c>
@@ -32342,7 +32342,7 @@
         <v>24.855681000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>541000</v>
       </c>
@@ -32386,7 +32386,7 @@
         <v>24.880199999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>546000</v>
       </c>
@@ -32430,7 +32430,7 @@
         <v>24.854077</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>551000</v>
       </c>
@@ -32474,7 +32474,7 @@
         <v>24.907609999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>556000</v>
       </c>
@@ -32518,7 +32518,7 @@
         <v>24.858317</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>561000</v>
       </c>
@@ -32562,7 +32562,7 @@
         <v>24.907271000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>566000</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>24.965672999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>571000</v>
       </c>
@@ -32650,7 +32650,7 @@
         <v>24.988354000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>576000</v>
       </c>
@@ -32694,7 +32694,7 @@
         <v>24.954878000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>581000</v>
       </c>
@@ -32738,7 +32738,7 @@
         <v>25.050947000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>586000</v>
       </c>
@@ -32782,7 +32782,7 @@
         <v>25.042403</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>591000</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>24.978021999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>596000</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>25.143772999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>601000</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>25.128571000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>606000</v>
       </c>
@@ -32958,7 +32958,7 @@
         <v>25.104025</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>611000</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>25.154074999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>616000</v>
       </c>
@@ -33046,7 +33046,7 @@
         <v>25.160726</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>621000</v>
       </c>
@@ -33090,7 +33090,7 @@
         <v>25.114750000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>626000</v>
       </c>
@@ -33134,7 +33134,7 @@
         <v>25.137895</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>631000</v>
       </c>
@@ -33178,7 +33178,7 @@
         <v>25.067613000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>636000</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>25.247067999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>641000</v>
       </c>
@@ -33266,7 +33266,7 @@
         <v>25.205573000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>646000</v>
       </c>
@@ -33310,7 +33310,7 @@
         <v>25.221554000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>651000</v>
       </c>
@@ -33354,7 +33354,7 @@
         <v>25.221053999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>656000</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>25.242213</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>661000</v>
       </c>
@@ -33442,7 +33442,7 @@
         <v>25.278852000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>666000</v>
       </c>
@@ -33486,7 +33486,7 @@
         <v>25.390371999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>671000</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>25.333848</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>676000</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>25.319709</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>681000</v>
       </c>
@@ -33618,7 +33618,7 @@
         <v>25.365366999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>686000</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>25.48414</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>691000</v>
       </c>
@@ -33706,7 +33706,7 @@
         <v>25.378965000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>696000</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>25.347455</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>701000</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>25.423904</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>706000</v>
       </c>
@@ -33838,7 +33838,7 @@
         <v>25.399493</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>711000</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>25.424275999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>716000</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>25.457830000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>721000</v>
       </c>
@@ -33970,7 +33970,7 @@
         <v>25.496670000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>726000</v>
       </c>
@@ -34014,7 +34014,7 @@
         <v>25.428242000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>731000</v>
       </c>
@@ -34058,7 +34058,7 @@
         <v>25.513940999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>736000</v>
       </c>
@@ -34102,7 +34102,7 @@
         <v>25.419708</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>741000</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>25.529862000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>746000</v>
       </c>
@@ -34190,7 +34190,7 @@
         <v>25.523866000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>751000</v>
       </c>
@@ -34234,7 +34234,7 @@
         <v>25.563997000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>756000</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>25.595680999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>761000</v>
       </c>
@@ -34322,7 +34322,7 @@
         <v>25.626424</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>766000</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>25.603542999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>771000</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>25.64066</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>776000</v>
       </c>
@@ -34454,7 +34454,7 @@
         <v>25.648101</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>781000</v>
       </c>
@@ -34498,7 +34498,7 @@
         <v>25.747533000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>786000</v>
       </c>
@@ -34542,7 +34542,7 @@
         <v>25.63456</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>791000</v>
       </c>
@@ -34586,7 +34586,7 @@
         <v>25.934294999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>796000</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>25.621230000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>801000</v>
       </c>
@@ -34674,7 +34674,7 @@
         <v>25.599913999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>806000</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>25.846800000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>811000</v>
       </c>
@@ -34762,7 +34762,7 @@
         <v>25.756216999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>816000</v>
       </c>
@@ -34806,7 +34806,7 @@
         <v>25.755925999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>821000</v>
       </c>
@@ -34850,7 +34850,7 @@
         <v>25.772445000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>826000</v>
       </c>
@@ -34894,7 +34894,7 @@
         <v>25.840987999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>831000</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>25.824321000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>836000</v>
       </c>
@@ -34982,7 +34982,7 @@
         <v>25.791602000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>841000</v>
       </c>
@@ -35026,7 +35026,7 @@
         <v>25.889392000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>846000</v>
       </c>
@@ -35070,7 +35070,7 @@
         <v>25.867774000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>851000</v>
       </c>
@@ -35114,7 +35114,7 @@
         <v>25.827009</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>856000</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>25.864042000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>861000</v>
       </c>
@@ -35202,7 +35202,7 @@
         <v>25.792242999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>866000</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>25.877184</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>871000</v>
       </c>
@@ -35290,7 +35290,7 @@
         <v>25.794370000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>876000</v>
       </c>
@@ -35334,7 +35334,7 @@
         <v>25.922007000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>881000</v>
       </c>
@@ -35378,7 +35378,7 @@
         <v>25.877669999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>886000</v>
       </c>
@@ -35422,7 +35422,7 @@
         <v>25.988586999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>891000</v>
       </c>
@@ -35466,7 +35466,7 @@
         <v>25.956272999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>896000</v>
       </c>
@@ -35510,7 +35510,7 @@
         <v>25.965229999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>901000</v>
       </c>
@@ -35554,7 +35554,7 @@
         <v>25.873887</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>906000</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>25.931107000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>911000</v>
       </c>
@@ -35642,7 +35642,7 @@
         <v>26.007950999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>916000</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>26.046225</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>921000</v>
       </c>
@@ -35730,7 +35730,7 @@
         <v>25.964670000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>926000</v>
       </c>
@@ -35774,7 +35774,7 @@
         <v>25.964711999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>931000</v>
       </c>
@@ -35818,7 +35818,7 @@
         <v>26.015055</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>936000</v>
       </c>
@@ -35862,7 +35862,7 @@
         <v>26.082917999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>941000</v>
       </c>
@@ -35906,7 +35906,7 @@
         <v>26.100238000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>946000</v>
       </c>
@@ -35950,7 +35950,7 @@
         <v>26.161242999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>951000</v>
       </c>
@@ -35994,7 +35994,7 @@
         <v>25.983281999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>956000</v>
       </c>
@@ -36038,7 +36038,7 @@
         <v>26.107651000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>961000</v>
       </c>
@@ -36082,7 +36082,7 @@
         <v>26.193849</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>966000</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>26.153217000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>971000</v>
       </c>
@@ -36170,7 +36170,7 @@
         <v>26.100456999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>976000</v>
       </c>
@@ -36214,7 +36214,7 @@
         <v>26.223175999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>981000</v>
       </c>
@@ -36258,7 +36258,7 @@
         <v>26.183325</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>986000</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>26.214676999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>991000</v>
       </c>
@@ -36346,48 +36346,48 @@
         <v>26.271526000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>996000</v>
       </c>
       <c r="B202">
-        <v>2.5102000000000002</v>
+        <v>2.6162000000000001</v>
       </c>
       <c r="C202">
-        <v>6.7168299999999999</v>
+        <v>6.7226100000000004</v>
       </c>
       <c r="D202">
-        <v>11.53877</v>
+        <v>11.551600000000001</v>
       </c>
       <c r="E202">
-        <v>16.311105000000001</v>
+        <v>16.308959000000002</v>
       </c>
       <c r="F202">
-        <v>21.425906000000001</v>
+        <v>21.423683</v>
       </c>
       <c r="G202">
-        <v>25.852371999999999</v>
+        <v>25.852865999999999</v>
       </c>
       <c r="I202">
         <v>996000</v>
       </c>
       <c r="J202">
-        <v>5.0557999999999996</v>
+        <v>15.379</v>
       </c>
       <c r="K202">
-        <v>9.3254699999999993</v>
+        <v>9.2333999999999996</v>
       </c>
       <c r="L202">
-        <v>18.20065</v>
+        <v>16.80696</v>
       </c>
       <c r="M202">
-        <v>16.65128</v>
+        <v>16.598952000000001</v>
       </c>
       <c r="N202">
-        <v>21.780487999999998</v>
+        <v>21.948262</v>
       </c>
       <c r="O202">
-        <v>26.271526000000001</v>
+        <v>26.117725</v>
       </c>
     </row>
   </sheetData>

--- a/charles-university/data-structures-1/splay-tree/docs/results.xlsx
+++ b/charles-university/data-structures-1/splay-tree/docs/results.xlsx
@@ -26917,16 +26917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82562</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26956,15 +26956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>100390</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27338,7 +27338,7 @@
   <dimension ref="A1:S202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
